--- a/Project Development Phase/User Acceptance Testing/Testcases Report.xlsx
+++ b/Project Development Phase/User Acceptance Testing/Testcases Report.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Shopenzer Testcases" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Classification of CVD Testcases" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Testscearnios" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="71">
   <si>
     <t>Date</t>
   </si>
@@ -113,6 +113,9 @@
     <t xml:space="preserve">       </t>
   </si>
   <si>
+    <t>Srivatsan</t>
+  </si>
+  <si>
     <t>HomePage_TC_002</t>
   </si>
   <si>
@@ -128,6 +131,9 @@
   </si>
   <si>
     <t>User should navigate to Infopage</t>
+  </si>
+  <si>
+    <t>Somnath Babu</t>
   </si>
   <si>
     <t>HomePage_TC_OO3</t>
@@ -147,6 +153,9 @@
     <t>User should navigate to Predict page</t>
   </si>
   <si>
+    <t>Santosh</t>
+  </si>
+  <si>
     <t>InfoPage_TC_001</t>
   </si>
   <si>
@@ -159,6 +168,9 @@
     <t>1.Enter URL and click go
 2.Press the Info button in the navigation bar
 3.Verify all the UI elements displayed or not.</t>
+  </si>
+  <si>
+    <t>Ragul</t>
   </si>
   <si>
     <t>Predict_TC_001</t>
@@ -194,6 +206,9 @@
     <t>Show the preview of the Uploaded ECG image</t>
   </si>
   <si>
+    <t>Harihara Sudhan</t>
+  </si>
+  <si>
     <t>predict_TC_003</t>
   </si>
   <si>
@@ -215,44 +230,32 @@
     <t>Test Scenarios</t>
   </si>
   <si>
-    <t>Verify user is able to see login page</t>
+    <t>Verify user is able to see Home page</t>
   </si>
   <si>
-    <t>Verify user is able to loginto application or not?</t>
+    <t>Verify user is able to navigate Info Page</t>
   </si>
   <si>
-    <t>Verify user is able to navigate to create your account page?</t>
+    <t>Verify user is able to navigate Predict Page</t>
   </si>
   <si>
-    <t>Verify user is able to recovery password</t>
+    <t>Verify user is able to see Info page</t>
   </si>
   <si>
-    <t>Veriify login page elements</t>
+    <t>Verify user is able to see Predict page</t>
   </si>
   <si>
-    <t>Search</t>
+    <t>Verify user is able to upload ECG image</t>
   </si>
   <si>
-    <t>Verify user is able to search by entering keywords in search box</t>
-  </si>
-  <si>
-    <t>Verify user is able to see suggestions based on keyword entered in search box</t>
-  </si>
-  <si>
-    <t>Verify user is able to see related auto suggestions displaying based on keyword entered in search box</t>
-  </si>
-  <si>
-    <t>Verify user is able to see no matches found message when no results are matching with entered keyword</t>
-  </si>
-  <si>
-    <t>Verify user is able to see seach detailed page when nothing entered in textbox</t>
+    <t>Verify user is able to redirect to predicted result page</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -291,8 +294,12 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,6 +310,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFDE9D9"/>
         <bgColor rgb="FFFDE9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -378,7 +391,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -429,6 +442,9 @@
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
@@ -438,6 +454,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2031,7 +2053,9 @@
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
+      <c r="N6" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
@@ -2047,26 +2071,26 @@
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>26</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>28</v>
@@ -2077,7 +2101,9 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
+      <c r="N7" s="16" t="s">
+        <v>37</v>
+      </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
@@ -2093,26 +2119,26 @@
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G8" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I8" s="16" t="s">
         <v>28</v>
@@ -2123,7 +2149,9 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
+      <c r="N8" s="16" t="s">
+        <v>43</v>
+      </c>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
@@ -2139,20 +2167,20 @@
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G9" s="20" t="s">
         <v>26</v>
@@ -2169,7 +2197,9 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
+      <c r="N9" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
@@ -2185,20 +2215,20 @@
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="17" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G10" s="20" t="s">
         <v>26</v>
@@ -2207,7 +2237,7 @@
         <v>27</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J10" s="16" t="s">
         <v>29</v>
@@ -2215,7 +2245,9 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
+      <c r="N10" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
@@ -2231,29 +2263,29 @@
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="17" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J11" s="16" t="s">
         <v>29</v>
@@ -2261,7 +2293,9 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
+      <c r="N11" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
@@ -2277,29 +2311,29 @@
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="17" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G12" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J12" s="16" t="s">
         <v>29</v>
@@ -2307,7 +2341,9 @@
       <c r="K12" s="21"/>
       <c r="L12" s="21"/>
       <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
+      <c r="N12" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="O12" s="21"/>
       <c r="P12" s="21"/>
       <c r="Q12" s="21"/>
@@ -2325,11 +2361,11 @@
       <c r="A13" s="21"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
+      <c r="D13" s="23"/>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
-      <c r="H13" s="23"/>
+      <c r="H13" s="24"/>
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
@@ -2353,11 +2389,11 @@
       <c r="A14" s="21"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
-      <c r="D14" s="22"/>
+      <c r="D14" s="23"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
-      <c r="H14" s="23"/>
+      <c r="H14" s="24"/>
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
@@ -2385,7 +2421,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="24"/>
+      <c r="H15" s="25"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -2413,7 +2449,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="24"/>
+      <c r="H16" s="25"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
@@ -2441,7 +2477,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="24"/>
+      <c r="H17" s="25"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -2469,7 +2505,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="24"/>
+      <c r="H18" s="25"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
@@ -2497,7 +2533,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="24"/>
+      <c r="H19" s="25"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -2525,7 +2561,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="24"/>
+      <c r="H20" s="25"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
@@ -2553,7 +2589,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="24"/>
+      <c r="H21" s="25"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -2581,7 +2617,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="24"/>
+      <c r="H22" s="25"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -2609,7 +2645,7 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="24"/>
+      <c r="H23" s="25"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -2637,7 +2673,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="24"/>
+      <c r="H24" s="25"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
@@ -2665,7 +2701,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="24"/>
+      <c r="H25" s="25"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
@@ -2693,7 +2729,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="24"/>
+      <c r="H26" s="25"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
@@ -2721,7 +2757,7 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
-      <c r="H27" s="24"/>
+      <c r="H27" s="25"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
@@ -2749,7 +2785,7 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="24"/>
+      <c r="H28" s="25"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
@@ -2777,7 +2813,7 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
-      <c r="H29" s="24"/>
+      <c r="H29" s="25"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
@@ -2805,7 +2841,7 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
-      <c r="H30" s="24"/>
+      <c r="H30" s="25"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
@@ -2833,7 +2869,7 @@
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
-      <c r="H31" s="24"/>
+      <c r="H31" s="25"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
@@ -30015,96 +30051,71 @@
     <row r="1" ht="14.25" customHeight="1"/>
     <row r="2" ht="14.25" customHeight="1"/>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="B3" s="25" t="s">
-        <v>58</v>
+      <c r="B3" s="26" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="26">
+      <c r="A4" s="27">
         <v>1.0</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>59</v>
+      <c r="B4" s="28" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="26">
+      <c r="A5" s="27">
         <v>2.0</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>60</v>
+      <c r="B5" s="28" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="26">
+      <c r="A6" s="27">
         <v>3.0</v>
       </c>
-      <c r="B6" s="26" t="s">
-        <v>61</v>
+      <c r="B6" s="29" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="26">
+      <c r="A7" s="27">
         <v>4.0</v>
       </c>
-      <c r="B7" s="26" t="s">
-        <v>62</v>
+      <c r="B7" s="28" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="26">
+      <c r="A8" s="27">
         <v>5.0</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" customHeight="1"/>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="B10" s="25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="B14" s="26" t="s">
+      <c r="B8" s="28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="26">
-        <v>5.0</v>
+    <row r="9" ht="14.25" customHeight="1">
+      <c r="A9" s="28">
+        <v>6.0</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B9" s="28" t="s">
         <v>69</v>
       </c>
     </row>
+    <row r="10" ht="14.25" customHeight="1">
+      <c r="A10" s="28">
+        <v>7.0</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" customHeight="1"/>
+    <row r="12" ht="14.25" customHeight="1"/>
+    <row r="13" ht="14.25" customHeight="1"/>
+    <row r="14" ht="14.25" customHeight="1"/>
+    <row r="15" ht="14.25" customHeight="1"/>
     <row r="16" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
